--- a/biology/Botanique/Helicia/Helicia.xlsx
+++ b/biology/Botanique/Helicia/Helicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helicia est un genre de plantes à fleurs de la famille des Proteaceae.
 Ce sont des arbustes ou des arbres trouvés dans le sud de l'Asie et jusqu'en Nouvelle-Galles du Sud en Australie.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (5 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (5 septembre 2020) :
 Helicia attenuata (Jack) Blume
 Helicia australasica F.Muell.
 Helicia blakei Foreman
@@ -551,7 +565,7 @@
 Helicia tibetensis H.X. Qiu
 Helicia tsaii W.T. Wang
 Helicia vestita W.W. Sm.
-Selon Catalogue of Life                                  (5 septembre 2020)[3] :
+Selon Catalogue of Life                                  (5 septembre 2020) :
 Helicia acutifolia Sleum.
 Helicia affinis Sleum.
 Helicia albiflora Sleum.
@@ -671,7 +685,7 @@
 Helicia woxvoldiana W. N. Takeuchi
 Helicia yangchunensis H. S. Kiu
 Helicia yingtzulinia S. S. Ying
-Selon Tropicos                                           (5 septembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Helicia annularis W.W. Sm.
 Helicia artocarpoides Elmer
 Helicia attenuata Blume
